--- a/tables/table3.xlsx
+++ b/tables/table3.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -464,7 +464,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.38</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.22</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,27 +639,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>0.27</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.13</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.27</t>
         </is>
       </c>
     </row>
@@ -723,29 +723,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>0.26</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>0.17</t>
@@ -753,7 +753,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.43</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.46</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.33</t>
         </is>
       </c>
     </row>
@@ -965,17 +965,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>0.42</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>624788</t>
+          <t>621535</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>25012</t>
+          <t>16159</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10009</t>
+          <t>6292</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2992</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>9966</t>
+          <t>6260</t>
         </is>
       </c>
     </row>
@@ -1066,34 +1066,34 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>0.54</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>0.54</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>0.6</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>0.52</t>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.45</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.35</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.11</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.25</t>
         </is>
       </c>
     </row>
@@ -1355,32 +1355,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.43</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.19</t>
         </is>
       </c>
     </row>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.27</t>
         </is>
       </c>
     </row>
@@ -1597,42 +1597,42 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>0.68</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>0.67</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>0.68</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>0.65</t>
         </is>
       </c>
     </row>
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>572708</t>
+          <t>568861</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>21190</t>
+          <t>13698</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7394</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1758</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>7731</t>
+          <t>4833</t>
         </is>
       </c>
     </row>

--- a/tables/table3.xlsx
+++ b/tables/table3.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -449,7 +449,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -570,37 +570,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -671,27 +671,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>0.29</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -866,27 +866,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>0.13</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.12</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -960,17 +960,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>0.46</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1170,17 +1170,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>0.13</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.12</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">

--- a/tables/table3.xlsx
+++ b/tables/table3.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -449,7 +449,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -476,27 +476,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>0.29</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.29</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -570,37 +570,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>0.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.05</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -634,27 +634,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>0.27</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.28</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -718,22 +718,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.45</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>3.01</t>
@@ -849,7 +849,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1380,17 +1380,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.45</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
